--- a/medicine/Mort/Ancien_cimetière_Saint-Matthieu/Ancien_cimetière_Saint-Matthieu.xlsx
+++ b/medicine/Mort/Ancien_cimetière_Saint-Matthieu/Ancien_cimetière_Saint-Matthieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_Saint-Matthieu</t>
+          <t>Ancien_cimetière_Saint-Matthieu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien cimetière Saint-Matthieu[1] (Alter St.-Matthäus-Kirchhof) est un cimetière berlinois historique placé sous protection du patrimoine culturel. Il est situé à Berlin-Schöneberg entre la Großgörschenstraße au nord, la Monumentenstraße au sud et la ligne ferroviaire du Wannsee à l'ouest.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien cimetière Saint-Matthieu (Alter St.-Matthäus-Kirchhof) est un cimetière berlinois historique placé sous protection du patrimoine culturel. Il est situé à Berlin-Schöneberg entre la Großgörschenstraße au nord, la Monumentenstraße au sud et la ligne ferroviaire du Wannsee à l'ouest.
 Géologiquement, le cimetière se situe sur le versant nord du plateau de Teltow incliné en pente douce vers la vallée proglaciaire de Berlin traversée par le cours fluvial de la Spree.
 Ouvert en 1856, le cimetière est rattaché à la paroisse de l'église Saint-Matthieu (de) à Berlin-Tiergarten.
 Le nom est désormais souvent raccourci en cimetière Saint-Matthieu puisque le nouveau cimetière Saint-Matthieu est désormais connu sous le nom de cimetière de Priesterweg (de).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_Saint-Matthieu</t>
+          <t>Ancien_cimetière_Saint-Matthieu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_Saint-Matthieu</t>
+          <t>Ancien_cimetière_Saint-Matthieu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tombes d'honneur
+          <t>Tombes d'honneur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Heinrich Adolf von Bardeleben (de) (1819-1895), chirurgien
 Gustav Bock (de) (1813-1863), éditeur
 Max Bruch (1838-1920), compositeur et chef d'orchestre
@@ -586,15 +606,84 @@
 Heinrich von Sybel (1817-1895), historien et politicien
 Georg Toebelmann (de) (1835-1909), architecte
 Rudolf Virchow (1821-1902), médecin pathologiste et homme politique
-Stèle des Résistants
-Cinq Résistants ayant participé au complot du 20 juillet 1944 ont été inhumés au cimetière. Ils ont été par la suite exhumés par les SS puis incinérés au crématorium de Wedding avant que leurs cendres ne soient dispersées dans les champs d'épandage autour de Berlin. Une stèle en leur honneur a été dressée au cimetière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ancien_cimetière_Saint-Matthieu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancien_cimeti%C3%A8re_Saint-Matthieu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Stèle des Résistants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cinq Résistants ayant participé au complot du 20 juillet 1944 ont été inhumés au cimetière. Ils ont été par la suite exhumés par les SS puis incinérés au crématorium de Wedding avant que leurs cendres ne soient dispersées dans les champs d'épandage autour de Berlin. Une stèle en leur honneur a été dressée au cimetière.
 Ludwig Beck (1880–1944)
 Werner von Haeften (1908–1944)
 Friedrich Olbricht (1888–1944)
 Albrecht Mertz von Quirnheim (1905–1944)
-Claus Schenk Graf von Stauffenberg (1907–1944)
-Autres personnalités
-Paul David Gustave du Bois-Reymond (1831-1889), mathématicien
+Claus Schenk Graf von Stauffenberg (1907–1944)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ancien_cimetière_Saint-Matthieu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancien_cimeti%C3%A8re_Saint-Matthieu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tombes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres personnalités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paul David Gustave du Bois-Reymond (1831-1889), mathématicien
 Otto von Camphausen (1812-1896), homme politique
 Hedwig Dohm (1831-1919), écrivaine et féministe
 Lazarus Fuchs (1833-1902), mathématicien
